--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="38">
   <si>
     <t>ProductName</t>
   </si>
@@ -134,13 +134,241 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="66">
+  <fonts count="104">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -573,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -640,6 +868,44 @@
     <xf numFmtId="0" fontId="63" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -665,26 +931,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="62">
+      <c r="A2" t="s" s="100">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="62">
+      <c r="B2" t="s" s="100">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="63">
+      <c r="A3" t="s" s="101">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="63">
+      <c r="B3" t="s" s="101">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="64">
+      <c r="A4" t="s" s="102">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="64">
+      <c r="B4" t="s" s="102">
         <v>5</v>
       </c>
     </row>
@@ -722,10 +988,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="65">
+      <c r="A1" t="s" s="103">
         <v>10</v>
       </c>
-      <c r="B1" t="s" s="65">
+      <c r="B1" t="s" s="103">
         <v>11</v>
       </c>
     </row>
